--- a/ME/ME.xlsx
+++ b/ME/ME.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>stoke</t>
   </si>
@@ -66,9 +66,6 @@
     <t>HELI</t>
   </si>
   <si>
-    <t>Undergoing</t>
-  </si>
-  <si>
     <t>Profit(%)</t>
   </si>
   <si>
@@ -91,6 +88,15 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>EFID</t>
+  </si>
+  <si>
+    <t>SWDY</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -455,16 +461,16 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -566,7 +572,7 @@
         <v>1500</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H9" si="0">IF(I4="Sold",F4-B4*C4+D4*E4-G4+H3-7,F4-B4*C4+D4*E4-G4+H3-3.5)</f>
+        <f t="shared" ref="H4:H11" si="0">IF(I4="Sold",F4-B4*C4+D4*E4-G4+H3-7,F4-B4*C4+D4*E4-G4+H3-3.5)</f>
         <v>2908.8</v>
       </c>
       <c r="I4" t="s">
@@ -659,7 +665,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -667,25 +673,35 @@
       <c r="C7">
         <v>19</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>20.6</v>
+      </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>2914.3</v>
+        <v>2931.4</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <f>IF((B7*C7)/(D7*E7)&gt;1,(1-(B7*C7)/(D7*E7))*100,(B7*C7/(D7*E7)-1)*100)</f>
+        <v>-7.7669902912621431</v>
       </c>
       <c r="K7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-5.3999999999999986</v>
       </c>
       <c r="L7">
         <f t="shared" si="3"/>
-        <v>-43.859999999999971</v>
+        <v>-49.25999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>375</v>
@@ -695,18 +711,15 @@
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>2157.0500000000002</v>
-      </c>
-      <c r="I8" t="s">
-        <v>15</v>
+        <v>2174.15</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>850</v>
@@ -716,10 +729,46 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>1414.0500000000002</v>
+        <v>1431.15</v>
       </c>
       <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
+      </c>
+      <c r="B10">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>16.7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>776.35000000000014</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>13.4</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>-17.749999999999886</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ME/ME.xlsx
+++ b/ME/ME.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>stoke</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>W</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>BTFH</t>
+  </si>
+  <si>
+    <t>ASPI</t>
+  </si>
+  <si>
+    <t>MTIE</t>
+  </si>
+  <si>
+    <t>OLFI</t>
   </si>
 </sst>
 </file>
@@ -107,7 +122,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -414,25 +429,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="M17" sqref="M17:M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.8984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,37 +464,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -484,36 +508,40 @@
         <v>7.98</v>
       </c>
       <c r="D2">
+        <f>B2*C2</f>
+        <v>87.78</v>
+      </c>
+      <c r="E2">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>7.74</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <f>40+64.02-29.78+2+25.42</f>
         <v>101.66</v>
       </c>
-      <c r="H2">
-        <f>IF(I2="Sold",F2-B2*C2+D2*E2-G2-7,F2-B2*C2+D2*E2-G2-3.5)</f>
+      <c r="I2">
+        <f>IF(J2="Sold",G2-B2*C2+E2*F2-H2-7,G2-B2*C2+E2*F2-H2-5)</f>
         <v>92.02</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="J2">
-        <f>IF((B2*C2)/(D2*E2)&gt;1,(1-(B2*C2)/(D2*E2))*100,(B2*C2/(D2*E2)-1)*100)</f>
-        <v>-3.1007751937984551</v>
-      </c>
       <c r="K2">
-        <f>IF(I2="Sold",D2*E2-C2*B2-7,"")</f>
+        <f>IF(J2="Sold",E2*F2-C2*B2-7,"")</f>
         <v>-9.64</v>
       </c>
       <c r="L2">
+        <f t="shared" ref="L2:L12" si="0">K2*100/(B2*C2)</f>
+        <v>-10.982000455684666</v>
+      </c>
+      <c r="M2">
         <f>K2</f>
         <v>-9.64</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -524,35 +552,39 @@
         <v>19.72</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D15" si="1">B3*C3</f>
+        <v>354.96</v>
+      </c>
+      <c r="E3">
         <v>18</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>18.03</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1379</v>
       </c>
-      <c r="H3">
-        <f>IF(I3="Sold",F3-B3*C3+D3*E3-G3+H2-7,F3-B3*C3+D3*E3-G3+H2-3.5)</f>
-        <v>1433.6</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <f t="shared" ref="I3:I13" si="2">IF(J3="Sold",G3-B3*C3+E3*F3-H3+I2-10,G3-B3*C3+E3*F3-H3+I2-5)</f>
+        <v>1430.6</v>
+      </c>
+      <c r="J3" t="s">
         <v>12</v>
       </c>
-      <c r="J3">
-        <f>IF((B3*C3)/(D3*E3)&gt;1,(1-(B3*C3)/(D3*E3))*100,(B3*C3/(D3*E3)-1)*100)</f>
-        <v>-9.3732667775928924</v>
-      </c>
       <c r="K3">
-        <f>IF(I3="Sold",D3*E3-C3*B3-7,0)</f>
+        <f t="shared" ref="K3:K12" si="3">IF(J3="Sold",E3*F3-C3*B3-7,0)</f>
         <v>-37.419999999999959</v>
       </c>
       <c r="L3">
-        <f>L2+K3</f>
+        <f t="shared" si="0"/>
+        <v>-10.542032905116059</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M12" si="4">M2+K3</f>
         <v>-47.05999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -563,35 +595,39 @@
         <v>3.95</v>
       </c>
       <c r="D4">
+        <f t="shared" si="1"/>
+        <v>351.55</v>
+      </c>
+      <c r="E4">
         <v>89</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>3.75</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1500</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H11" si="0">IF(I4="Sold",F4-B4*C4+D4*E4-G4+H3-7,F4-B4*C4+D4*E4-G4+H3-3.5)</f>
-        <v>2908.8</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <f t="shared" si="2"/>
+        <v>2902.8</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J5" si="1">IF((B4*C4)/(D4*E4)&gt;1,(1-(B4*C4)/(D4*E4))*100,(B4*C4/(D4*E4)-1)*100)</f>
-        <v>-5.3333333333333455</v>
-      </c>
       <c r="K4">
-        <f t="shared" ref="K4:K7" si="2">IF(I4="Sold",D4*E4-C4*B4-7,0)</f>
+        <f t="shared" si="3"/>
         <v>-24.800000000000011</v>
       </c>
       <c r="L4">
-        <f>L3+K4</f>
+        <f t="shared" si="0"/>
+        <v>-7.0544730479305953</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="4"/>
         <v>-71.859999999999971</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -602,32 +638,36 @@
         <v>42.5</v>
       </c>
       <c r="D5">
+        <f t="shared" si="1"/>
+        <v>680</v>
+      </c>
+      <c r="E5">
         <v>16</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>41.81</v>
       </c>
-      <c r="H5">
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>2881.76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>-18.039999999999964</v>
+      </c>
+      <c r="L5">
         <f t="shared" si="0"/>
-        <v>2890.76</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>-1.6503228892609467</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>-18.039999999999964</v>
-      </c>
-      <c r="L5">
-        <f>L4+K5</f>
+        <v>-2.6529411764705828</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
         <v>-89.899999999999935</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -638,32 +678,36 @@
         <v>9.4700000000000006</v>
       </c>
       <c r="D6">
+        <f t="shared" si="1"/>
+        <v>738.66000000000008</v>
+      </c>
+      <c r="E6">
         <v>78</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>10.15</v>
       </c>
-      <c r="H6">
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>2924.8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>46.039999999999964</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="0"/>
-        <v>2936.8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6">
-        <f>IF((B6*C6)/(D6*E6)&gt;1,(1-(B6*C6)/(D6*E6))*100,(B6*C6/(D6*E6)-1)*100)</f>
-        <v>-6.6995073891625516</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>46.039999999999964</v>
-      </c>
-      <c r="L6">
-        <f t="shared" ref="L6:L7" si="3">L5+K6</f>
+        <v>6.2329082392440309</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
         <v>-43.859999999999971</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -674,32 +718,36 @@
         <v>19</v>
       </c>
       <c r="D7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20.6</v>
       </c>
-      <c r="H7">
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>2916.4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>-5.3999999999999986</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="0"/>
-        <v>2931.4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <f>IF((B7*C7)/(D7*E7)&gt;1,(1-(B7*C7)/(D7*E7))*100,(B7*C7/(D7*E7)-1)*100)</f>
-        <v>-7.7669902912621431</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>-5.3999999999999986</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="3"/>
+        <v>-28.421052631578942</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="4"/>
         <v>-49.25999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -709,15 +757,40 @@
       <c r="C8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="H8">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>753.74999999999989</v>
+      </c>
+      <c r="E8">
+        <v>375</v>
+      </c>
+      <c r="F8">
+        <v>2.15</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>2958.9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>45.500000000000114</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>2174.15</v>
-      </c>
-      <c r="M8" t="s">
+        <v>6.0364842454394845</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="4"/>
+        <v>-3.7599999999998559</v>
+      </c>
+      <c r="N8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -727,15 +800,40 @@
       <c r="C9">
         <v>0.87</v>
       </c>
-      <c r="H9">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>739.5</v>
+      </c>
+      <c r="E9">
+        <v>850</v>
+      </c>
+      <c r="F9">
+        <v>0.9</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>2974.4</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>18.5</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="0"/>
-        <v>1431.15</v>
-      </c>
-      <c r="M9" t="s">
+        <v>2.5016903313049359</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="4"/>
+        <v>14.740000000000144</v>
+      </c>
+      <c r="N9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -745,15 +843,31 @@
       <c r="C10">
         <v>16.7</v>
       </c>
-      <c r="H10">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>651.29999999999995</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>2318.1000000000004</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="0"/>
-        <v>776.35000000000014</v>
-      </c>
-      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="4"/>
+        <v>14.740000000000144</v>
+      </c>
+      <c r="N10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -763,15 +877,213 @@
       <c r="C11">
         <v>13.4</v>
       </c>
-      <c r="H11">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>790.6</v>
+      </c>
+      <c r="E11">
+        <v>59</v>
+      </c>
+      <c r="F11">
+        <v>13.65</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>2322.8500000000004</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>7.75</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="0"/>
-        <v>-17.749999999999886</v>
-      </c>
-      <c r="M11" t="s">
+        <v>0.98026815077156582</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="4"/>
+        <v>22.490000000000144</v>
+      </c>
+      <c r="N11" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>491</v>
+      </c>
+      <c r="C12">
+        <v>3.2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1571.2</v>
+      </c>
+      <c r="E12">
+        <v>491</v>
+      </c>
+      <c r="F12">
+        <v>3.54</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="2"/>
+        <v>2479.7900000000004</v>
+      </c>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>159.94000000000005</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>10.179480651731165</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="4"/>
+        <v>182.43000000000021</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13">
+        <v>2963</v>
+      </c>
+      <c r="C13">
+        <v>0.27</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>800.0100000000001</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>1674.7800000000002</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>4.33</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>779.4</v>
+      </c>
+      <c r="I14">
+        <f>IF(J14="Sold",G14-B14*C14+E14*F14-H14+I13-10,G14-B14*C14+E14*F14-H14+I13-5)</f>
+        <v>890.38000000000022</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>939.32</v>
+      </c>
+      <c r="I15">
+        <f>IF(J15="Sold",G15-B15*C15+E15*F15-H15+I14-10,G15-B15*C15+E15*F15-H15+I14-5)</f>
+        <v>-53.939999999999827</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ME/ME.xlsx
+++ b/ME/ME.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>stoke</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>OLFI</t>
+  </si>
+  <si>
+    <t>KRDI</t>
   </si>
 </sst>
 </file>
@@ -429,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:M34"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +555,7 @@
         <v>19.72</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D15" si="1">B3*C3</f>
+        <f t="shared" ref="D3:D16" si="1">B3*C3</f>
         <v>354.96</v>
       </c>
       <c r="E3">
@@ -967,9 +970,30 @@
         <f t="shared" si="1"/>
         <v>800.0100000000001</v>
       </c>
+      <c r="E13">
+        <v>2963</v>
+      </c>
+      <c r="F13">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>1674.7800000000002</v>
+        <v>2499.4200000000005</v>
+      </c>
+      <c r="J13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13" si="5">IF(J13="Sold",E13*F13-C13*B13-7,0)</f>
+        <v>22.629999999999995</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13" si="6">K13*100/(B13*C13)</f>
+        <v>2.8287146410669859</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13" si="7">M12+K13</f>
+        <v>205.0600000000002</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -991,7 +1015,19 @@
       </c>
       <c r="I14">
         <f>IF(J14="Sold",G14-B14*C14+E14*F14-H14+I13-10,G14-B14*C14+E14*F14-H14+I13-5)</f>
-        <v>890.38000000000022</v>
+        <v>1715.0200000000004</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ref="K14:K15" si="8">IF(J14="Sold",E14*F14-C14*B14-7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L15" si="9">K14*100/(B14*C14)</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ref="M14:M15" si="10">M13+K14</f>
+        <v>205.0600000000002</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -1011,12 +1047,55 @@
         <f t="shared" si="1"/>
         <v>939.32</v>
       </c>
+      <c r="E15">
+        <v>92</v>
+      </c>
+      <c r="F15">
+        <v>10.97</v>
+      </c>
       <c r="I15">
         <f>IF(J15="Sold",G15-B15*C15+E15*F15-H15+I14-10,G15-B15*C15+E15*F15-H15+I14-5)</f>
-        <v>-53.939999999999827</v>
+        <v>1774.9400000000005</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="8"/>
+        <v>62.919999999999959</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="9"/>
+        <v>6.6984627177106804</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="10"/>
+        <v>267.98000000000013</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>4300</v>
+      </c>
+      <c r="C16">
+        <v>0.34</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1462</v>
+      </c>
+      <c r="I16">
+        <f>IF(J16="Sold",G16-B16*C16+E16*F16-H16+I15-10,G16-B16*C16+E16*F16-H16+I15-5)</f>
+        <v>307.94000000000051</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/ME/ME.xlsx
+++ b/ME/ME.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>stoke</t>
   </si>
@@ -115,12 +115,27 @@
   </si>
   <si>
     <t>KRDI</t>
+  </si>
+  <si>
+    <t>EPCO</t>
+  </si>
+  <si>
+    <t>PRMH</t>
+  </si>
+  <si>
+    <t>Date Bought</t>
+  </si>
+  <si>
+    <t>Date Sold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -150,14 +165,123 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4343"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF4343"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -432,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,9 +578,10 @@
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +624,14 @@
       <c r="N1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -544,7 +675,7 @@
         <v>-9.64</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -555,7 +686,7 @@
         <v>19.72</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D16" si="1">B3*C3</f>
+        <f t="shared" ref="D3:D19" si="1">B3*C3</f>
         <v>354.96</v>
       </c>
       <c r="E3">
@@ -587,7 +718,7 @@
         <v>-47.05999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -630,7 +761,7 @@
         <v>-71.859999999999971</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -650,9 +781,12 @@
       <c r="F5">
         <v>41.81</v>
       </c>
+      <c r="G5">
+        <v>3000</v>
+      </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>2881.76</v>
+        <v>5881.76</v>
       </c>
       <c r="J5" t="s">
         <v>12</v>
@@ -670,7 +804,7 @@
         <v>-89.899999999999935</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -692,7 +826,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>2924.8</v>
+        <v>5924.8</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
@@ -710,7 +844,7 @@
         <v>-43.859999999999971</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -732,7 +866,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>2916.4</v>
+        <v>5916.4000000000005</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
@@ -750,7 +884,7 @@
         <v>-49.25999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -772,7 +906,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>2958.9</v>
+        <v>5958.9000000000005</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -792,8 +926,11 @@
       <c r="N8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P8" s="1">
+        <v>44973</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -815,7 +952,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>2974.4</v>
+        <v>5974.4000000000005</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
@@ -835,8 +972,11 @@
       <c r="N9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P9" s="1">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -852,7 +992,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>2318.1000000000004</v>
+        <v>5318.1</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
@@ -869,8 +1009,11 @@
       <c r="N10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O10" s="1">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -892,7 +1035,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>2322.8500000000004</v>
+        <v>5322.85</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -912,8 +1055,14 @@
       <c r="N11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O11" s="1">
+        <v>44978</v>
+      </c>
+      <c r="P11" s="1">
+        <v>44980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -935,7 +1084,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>2479.7900000000004</v>
+        <v>5479.7900000000009</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -955,8 +1104,14 @@
       <c r="N12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O12" s="1">
+        <v>44983</v>
+      </c>
+      <c r="P12" s="1">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -978,7 +1133,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>2499.4200000000005</v>
+        <v>5499.420000000001</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -998,8 +1153,14 @@
       <c r="N13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <v>44986</v>
+      </c>
+      <c r="P13" s="1">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1013,27 +1174,42 @@
         <f t="shared" si="1"/>
         <v>779.4</v>
       </c>
+      <c r="E14">
+        <v>180</v>
+      </c>
+      <c r="F14">
+        <v>4.09</v>
+      </c>
       <c r="I14">
-        <f>IF(J14="Sold",G14-B14*C14+E14*F14-H14+I13-10,G14-B14*C14+E14*F14-H14+I13-5)</f>
-        <v>1715.0200000000004</v>
+        <f t="shared" ref="I14:I19" si="8">IF(J14="Sold",G14-B14*C14+E14*F14-H14+I13-10,G14-B14*C14+E14*F14-H14+I13-5)</f>
+        <v>5446.2200000000012</v>
+      </c>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K15" si="8">IF(J14="Sold",E14*F14-C14*B14-7,0)</f>
-        <v>0</v>
+        <f t="shared" ref="K14:K17" si="9">IF(J14="Sold",E14*F14-C14*B14-7,0)</f>
+        <v>-50.200000000000045</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L15" si="9">K14*100/(B14*C14)</f>
-        <v>0</v>
+        <f t="shared" ref="L14:L15" si="10">K14*100/(B14*C14)</f>
+        <v>-6.4408519373877402</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M15" si="10">M13+K14</f>
-        <v>205.0600000000002</v>
+        <f t="shared" ref="M14:M15" si="11">M13+K14</f>
+        <v>154.86000000000016</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O14" s="1">
+        <v>44986</v>
+      </c>
+      <c r="P14" s="1">
+        <v>44990</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1054,29 +1230,35 @@
         <v>10.97</v>
       </c>
       <c r="I15">
-        <f>IF(J15="Sold",G15-B15*C15+E15*F15-H15+I14-10,G15-B15*C15+E15*F15-H15+I14-5)</f>
-        <v>1774.9400000000005</v>
+        <f t="shared" si="8"/>
+        <v>5506.1400000000012</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
       </c>
       <c r="K15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>62.919999999999959</v>
       </c>
       <c r="L15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.6984627177106804</v>
       </c>
       <c r="M15">
-        <f t="shared" si="10"/>
-        <v>267.98000000000013</v>
+        <f t="shared" si="11"/>
+        <v>217.78000000000011</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O15" s="1">
+        <v>44986</v>
+      </c>
+      <c r="P15" s="1">
+        <v>44991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1091,16 +1273,94 @@
         <v>1462</v>
       </c>
       <c r="I16">
-        <f>IF(J16="Sold",G16-B16*C16+E16*F16-H16+I15-10,G16-B16*C16+E16*F16-H16+I15-5)</f>
-        <v>307.94000000000051</v>
+        <f t="shared" si="8"/>
+        <v>4039.1400000000012</v>
       </c>
       <c r="N16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>548</v>
+      </c>
+      <c r="C17">
+        <v>2.79</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1528.92</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="8"/>
+        <v>2505.2200000000012</v>
+      </c>
+      <c r="N17" t="s">
         <v>25</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>10.16</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1016</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="8"/>
+        <v>1484.2200000000012</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>3100</v>
+      </c>
+      <c r="C19">
+        <v>0.49</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1519</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="8"/>
+        <v>-39.779999999998836</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44997</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1112,7 +1372,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1124,7 +1384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1134,6 +1394,74 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$K1&gt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>$K1&lt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1143,26 +1471,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"M"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"W"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ME/ME.xlsx
+++ b/ME/ME.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>stoke</t>
   </si>
@@ -134,7 +134,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -167,14 +167,28 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4343"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -196,23 +210,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
@@ -223,55 +220,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4343"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -559,7 +507,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,27 +938,39 @@
         <f t="shared" si="1"/>
         <v>651.29999999999995</v>
       </c>
+      <c r="E10">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>16.149999999999999</v>
+      </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>5318.1</v>
+        <v>5942.9500000000007</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-28.450000000000045</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.3681867035160522</v>
       </c>
       <c r="M10">
         <f t="shared" si="4"/>
-        <v>14.740000000000144</v>
+        <v>-13.709999999999901</v>
       </c>
       <c r="N10" t="s">
         <v>22</v>
       </c>
       <c r="O10" s="1">
         <v>44977</v>
+      </c>
+      <c r="P10" s="1">
+        <v>45007</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1035,7 +995,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>5322.85</v>
+        <v>5947.7000000000007</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
@@ -1050,7 +1010,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="4"/>
-        <v>22.490000000000144</v>
+        <v>-5.9599999999999014</v>
       </c>
       <c r="N11" t="s">
         <v>25</v>
@@ -1084,7 +1044,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>5479.7900000000009</v>
+        <v>6104.6400000000012</v>
       </c>
       <c r="J12" t="s">
         <v>12</v>
@@ -1099,7 +1059,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="4"/>
-        <v>182.43000000000021</v>
+        <v>153.98000000000016</v>
       </c>
       <c r="N12" t="s">
         <v>25</v>
@@ -1133,7 +1093,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>5499.420000000001</v>
+        <v>6124.2700000000013</v>
       </c>
       <c r="J13" t="s">
         <v>12</v>
@@ -1148,7 +1108,7 @@
       </c>
       <c r="M13">
         <f t="shared" ref="M13" si="7">M12+K13</f>
-        <v>205.0600000000002</v>
+        <v>176.61000000000016</v>
       </c>
       <c r="N13" t="s">
         <v>25</v>
@@ -1182,7 +1142,7 @@
       </c>
       <c r="I14">
         <f t="shared" ref="I14:I19" si="8">IF(J14="Sold",G14-B14*C14+E14*F14-H14+I13-10,G14-B14*C14+E14*F14-H14+I13-5)</f>
-        <v>5446.2200000000012</v>
+        <v>6071.0700000000015</v>
       </c>
       <c r="J14" t="s">
         <v>12</v>
@@ -1192,12 +1152,12 @@
         <v>-50.200000000000045</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:L15" si="10">K14*100/(B14*C14)</f>
+        <f t="shared" ref="L14:L17" si="10">K14*100/(B14*C14)</f>
         <v>-6.4408519373877402</v>
       </c>
       <c r="M14">
-        <f t="shared" ref="M14:M15" si="11">M13+K14</f>
-        <v>154.86000000000016</v>
+        <f t="shared" ref="M14:M17" si="11">M13+K14</f>
+        <v>126.41000000000011</v>
       </c>
       <c r="N14" t="s">
         <v>25</v>
@@ -1231,7 +1191,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="8"/>
-        <v>5506.1400000000012</v>
+        <v>6130.9900000000016</v>
       </c>
       <c r="J15" t="s">
         <v>12</v>
@@ -1246,7 +1206,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="11"/>
-        <v>217.78000000000011</v>
+        <v>189.33000000000007</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
@@ -1274,7 +1234,19 @@
       </c>
       <c r="I16">
         <f t="shared" si="8"/>
-        <v>4039.1400000000012</v>
+        <v>4663.9900000000016</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="11"/>
+        <v>189.33000000000007</v>
       </c>
       <c r="N16" t="s">
         <v>22</v>
@@ -1283,7 +1255,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1297,9 +1269,30 @@
         <f t="shared" si="1"/>
         <v>1528.92</v>
       </c>
+      <c r="E17">
+        <v>548</v>
+      </c>
+      <c r="F17">
+        <v>2.61</v>
+      </c>
       <c r="I17">
         <f t="shared" si="8"/>
-        <v>2505.2200000000012</v>
+        <v>4555.3500000000013</v>
+      </c>
+      <c r="J17" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>-105.6400000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>-6.9094524239332404</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="11"/>
+        <v>83.689999999999969</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
@@ -1307,8 +1300,11 @@
       <c r="O17" s="1">
         <v>44997</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1324,7 +1320,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="8"/>
-        <v>1484.2200000000012</v>
+        <v>3534.3500000000013</v>
       </c>
       <c r="N18" t="s">
         <v>22</v>
@@ -1333,7 +1329,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1349,7 +1345,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="8"/>
-        <v>-39.779999999998836</v>
+        <v>2010.3500000000013</v>
       </c>
       <c r="N19" t="s">
         <v>25</v>
@@ -1360,7 +1356,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1372,7 +1368,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1384,7 +1380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1394,7 +1390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1404,7 +1400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1414,7 +1410,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1423,15 +1419,35 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" dxfId="6" priority="8">
+  <conditionalFormatting sqref="A1:A16 A18:A1048576">
+    <cfRule type="expression" dxfId="5" priority="9">
+      <formula>$K1&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$K1&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="7">
-      <formula>$K1&lt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1441,7 +1457,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1451,32 +1467,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"W"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"M"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"M"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"W"</formula>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$K17&lt;0</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$K17&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
